--- a/exemples/cryptoAixbtBase.xlsx
+++ b/exemples/cryptoAixbtBase.xlsx
@@ -142,7 +142,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,7 +158,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -183,12 +183,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,6 +248,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,15 +276,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,10 +298,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -363,7 +357,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -496,7 +490,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,8 +568,8 @@
       <c r="C2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+      <c r="D2" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -589,79 +583,85 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="K2" s="5" t="n">
+        <v>0.253999997535191</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>210000</v>
-      </c>
-      <c r="L2" s="6" t="n">
+        <v>0.266699997411951</v>
+      </c>
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
-      </c>
-      <c r="M2" s="7" t="n">
+        <v>103.010001</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>1E-011</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>45919</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="12" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>103.01</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45789</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>45961</v>
+      </c>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="18"/>
